--- a/data/mitmachen/mitmachen_gebäude_zugänglichkeit.xlsx
+++ b/data/mitmachen/mitmachen_gebäude_zugänglichkeit.xlsx
@@ -5,19 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonie Regina Twente\MappingAccess-UzK-leaflet\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonie Regina Twente\MappingAccess-UzK-leaflet\data\mitmachen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65BD6F3D-87C5-4847-8C95-5F5188BE6B9E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C08798F1-870E-4773-867C-FDAE7108C721}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{25BE4C82-BF23-4CEC-834C-66FDADCB37F7}"/>
+    <workbookView xWindow="6700" yWindow="0" windowWidth="12400" windowHeight="10200" xr2:uid="{25BE4C82-BF23-4CEC-834C-66FDADCB37F7}"/>
   </bookViews>
   <sheets>
     <sheet name="UzK_Gebäude" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="ExterneDaten_1" localSheetId="0" hidden="1">UzK_Gebäude!$E$1:$DA$3</definedName>
-    <definedName name="ExterneDaten_1" localSheetId="0" hidden="1">UzK_Gebäude!$E$1:$DA$3</definedName>
+    <definedName name="ExterneDaten_1" localSheetId="0" hidden="1">UzK_Gebäude!$D$1:$CZ$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -786,8 +785,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4AC932CD-6531-4F58-9E24-CA21A279E6EF}" name="a11y_buildingModel" displayName="a11y_buildingModel" ref="E1:DA3" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="E1:DA3" xr:uid="{383533F3-EB37-4737-85C4-2A8BAD589312}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4AC932CD-6531-4F58-9E24-CA21A279E6EF}" name="a11y_buildingModel" displayName="a11y_buildingModel" ref="D1:CZ3" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="D1:CZ3" xr:uid="{383533F3-EB37-4737-85C4-2A8BAD589312}"/>
   <tableColumns count="101">
     <tableColumn id="1" xr3:uid="{9FB25C01-1D5B-4AF2-ADD6-BB39B15BF4C0}" uniqueName="1" name="description" queryTableFieldId="1" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{FABBA561-8237-49A3-A8C9-8CA9853183DC}" uniqueName="2" name="ground.evenPavemement" queryTableFieldId="2"/>
@@ -1192,951 +1191,953 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0CC2C7F-0AFB-41DB-BA1A-B178766E2C75}">
-  <dimension ref="A1:DA3"/>
+  <dimension ref="A1:CZ3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="21.81640625" customWidth="1"/>
-    <col min="5" max="5" width="55.90625" customWidth="1"/>
-    <col min="6" max="6" width="24.90625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.08984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.08984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="80.7265625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="34" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="29.7265625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="28.6328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="29.1796875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.1796875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22.453125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="21.08984375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="30.08984375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="37.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.81640625" customWidth="1"/>
+    <col min="4" max="4" width="55.90625" customWidth="1"/>
+    <col min="5" max="5" width="24.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="80.7265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="34" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="29.7265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="28.6328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="29.1796875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.1796875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.08984375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="30.08984375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="37.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:105" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>36</v>
       </c>
+      <c r="B1" t="s">
+        <v>39</v>
+      </c>
       <c r="C1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H1" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="I1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="S1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="T1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="X1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Y1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Z1" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="AA1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AB1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AC1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AD1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AE1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AF1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="AG1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="AH1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AI1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AK1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AL1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AM1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AN1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AO1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AP1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AQ1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AR1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AS1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AT1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AU1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AV1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AW1" t="s">
-        <v>113</v>
+        <v>148</v>
       </c>
       <c r="AX1" t="s">
-        <v>148</v>
+        <v>114</v>
       </c>
       <c r="AY1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AZ1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="BA1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="BB1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="BC1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="BD1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="BE1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="BF1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="BG1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="BH1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="BI1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="BJ1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="BK1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="BL1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="BM1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="BN1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="BO1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="BP1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="BQ1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="BR1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="BS1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BT1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="BU1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="BV1" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="BW1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="BX1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="BY1" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="BZ1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="CA1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="CB1" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="CC1" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="CD1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="CE1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="CF1" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="CG1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="CH1" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="CI1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="CJ1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="CK1" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="CL1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="CM1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="CN1" t="s">
-        <v>177</v>
+        <v>31</v>
       </c>
       <c r="CO1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="CP1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="CQ1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="CR1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="CS1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="CT1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="CU1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="CV1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="CW1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="CX1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="CY1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="CZ1" t="s">
-        <v>20</v>
-      </c>
-      <c r="DA1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:105" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="1">
+      <c r="B2" s="1">
         <v>103</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>181</v>
       </c>
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
       <c r="F2" t="b">
         <v>0</v>
       </c>
-      <c r="G2" t="b">
-        <v>0</v>
+      <c r="G2" t="s">
+        <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" t="s">
         <v>81</v>
       </c>
+      <c r="I2" t="b">
+        <v>1</v>
+      </c>
       <c r="J2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M2" t="b">
         <v>1</v>
       </c>
-      <c r="K2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M2" t="b">
-        <v>0</v>
-      </c>
-      <c r="N2" t="b">
+      <c r="N2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="O2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="b">
+        <v>0</v>
+      </c>
+      <c r="S2" t="b">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>5</v>
+      </c>
+      <c r="U2" t="b">
+        <v>0</v>
+      </c>
+      <c r="V2" t="b">
+        <v>0</v>
+      </c>
+      <c r="W2" t="b">
         <v>1</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="X2" s="1">
+        <v>20</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>90</v>
+      </c>
+      <c r="AE2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM2" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="P2" t="s">
+      <c r="AN2" t="s">
         <v>17</v>
       </c>
-      <c r="Q2" t="b">
-        <v>0</v>
-      </c>
-      <c r="R2" t="b">
-        <v>0</v>
-      </c>
-      <c r="T2" t="b">
-        <v>0</v>
-      </c>
-      <c r="U2">
+      <c r="AO2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS2">
         <v>5</v>
       </c>
-      <c r="V2" t="b">
-        <v>0</v>
-      </c>
-      <c r="W2" t="b">
-        <v>0</v>
-      </c>
-      <c r="X2" t="b">
+      <c r="AT2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV2" t="b">
         <v>1</v>
       </c>
-      <c r="Y2" s="1">
+      <c r="AW2" s="1">
         <v>20</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AX2" t="s">
         <v>62</v>
       </c>
-      <c r="AA2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AC2" t="b">
+      <c r="AY2" t="s">
+        <v>118</v>
+      </c>
+      <c r="AZ2" t="b">
         <v>1</v>
-      </c>
-      <c r="AD2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>90</v>
-      </c>
-      <c r="AF2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AI2" t="b">
-        <v>1</v>
-      </c>
-      <c r="AJ2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM2" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN2" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>17</v>
-      </c>
-      <c r="AP2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT2">
-        <v>5</v>
-      </c>
-      <c r="AU2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW2" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX2" s="1">
-        <v>20</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>118</v>
       </c>
       <c r="BA2" t="b">
         <v>1</v>
       </c>
       <c r="BB2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>81</v>
+      </c>
+      <c r="BE2" t="b">
         <v>1</v>
       </c>
-      <c r="BC2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>81</v>
-      </c>
       <c r="BF2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BG2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BH2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BI2" t="b">
         <v>1</v>
       </c>
-      <c r="BG2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BH2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BI2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ2" t="b">
+      <c r="BJ2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>17</v>
+      </c>
+      <c r="BL2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BM2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BO2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BP2">
+        <v>5</v>
+      </c>
+      <c r="BQ2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BR2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS2" t="b">
         <v>1</v>
       </c>
-      <c r="BK2" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="BL2" t="s">
+      <c r="BT2" s="1">
+        <v>20</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BV2" t="b">
+        <v>1</v>
+      </c>
+      <c r="BW2">
+        <v>50</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BY2" t="b">
+        <v>1</v>
+      </c>
+      <c r="BZ2">
+        <v>50</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>62</v>
+      </c>
+      <c r="CB2" t="b">
+        <v>0</v>
+      </c>
+      <c r="CC2" t="b">
+        <v>1</v>
+      </c>
+      <c r="CD2">
+        <v>10</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>164</v>
+      </c>
+      <c r="CF2" t="b">
+        <v>0</v>
+      </c>
+      <c r="CG2" t="b">
+        <v>0</v>
+      </c>
+      <c r="CH2" t="b">
+        <v>1</v>
+      </c>
+      <c r="CI2">
+        <v>45</v>
+      </c>
+      <c r="CJ2" t="s">
+        <v>62</v>
+      </c>
+      <c r="CK2" t="b">
+        <v>1</v>
+      </c>
+      <c r="CL2">
+        <v>60</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>62</v>
+      </c>
+      <c r="CN2" t="b">
+        <v>1</v>
+      </c>
+      <c r="CO2">
+        <v>2</v>
+      </c>
+      <c r="CP2" t="s">
         <v>17</v>
       </c>
-      <c r="BM2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BN2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BP2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BQ2">
-        <v>5</v>
-      </c>
-      <c r="BR2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BT2" t="b">
+      <c r="CQ2" t="b">
+        <v>0</v>
+      </c>
+      <c r="CR2" t="b">
+        <v>0</v>
+      </c>
+      <c r="CS2" t="b">
+        <v>0</v>
+      </c>
+      <c r="CT2" t="b">
+        <v>0</v>
+      </c>
+      <c r="CU2" t="b">
         <v>1</v>
       </c>
-      <c r="BU2" s="1">
-        <v>20</v>
-      </c>
-      <c r="BV2" t="s">
-        <v>62</v>
-      </c>
-      <c r="BW2" t="b">
+      <c r="CV2" t="b">
+        <v>0</v>
+      </c>
+      <c r="CW2" t="b">
         <v>1</v>
-      </c>
-      <c r="BX2">
-        <v>50</v>
-      </c>
-      <c r="BY2" t="s">
-        <v>62</v>
-      </c>
-      <c r="BZ2" t="b">
-        <v>1</v>
-      </c>
-      <c r="CA2">
-        <v>50</v>
-      </c>
-      <c r="CB2" t="s">
-        <v>62</v>
-      </c>
-      <c r="CC2" t="b">
-        <v>0</v>
-      </c>
-      <c r="CD2" t="b">
-        <v>1</v>
-      </c>
-      <c r="CE2">
-        <v>10</v>
-      </c>
-      <c r="CF2" t="s">
-        <v>164</v>
-      </c>
-      <c r="CG2" t="b">
-        <v>0</v>
-      </c>
-      <c r="CH2" t="b">
-        <v>0</v>
-      </c>
-      <c r="CI2" t="b">
-        <v>1</v>
-      </c>
-      <c r="CJ2">
-        <v>45</v>
-      </c>
-      <c r="CK2" t="s">
-        <v>62</v>
-      </c>
-      <c r="CL2" t="b">
-        <v>1</v>
-      </c>
-      <c r="CM2">
-        <v>60</v>
-      </c>
-      <c r="CN2" t="s">
-        <v>62</v>
-      </c>
-      <c r="CO2" t="b">
-        <v>1</v>
-      </c>
-      <c r="CP2">
-        <v>2</v>
-      </c>
-      <c r="CQ2" t="s">
-        <v>17</v>
-      </c>
-      <c r="CR2" t="b">
-        <v>0</v>
-      </c>
-      <c r="CS2" t="b">
-        <v>0</v>
-      </c>
-      <c r="CT2" t="b">
-        <v>0</v>
-      </c>
-      <c r="CU2" t="b">
-        <v>0</v>
-      </c>
-      <c r="CV2" t="b">
-        <v>1</v>
-      </c>
-      <c r="CW2" t="b">
-        <v>0</v>
       </c>
       <c r="CX2" t="b">
         <v>1</v>
       </c>
       <c r="CY2" t="b">
-        <v>1</v>
-      </c>
-      <c r="CZ2" t="b">
-        <v>0</v>
-      </c>
-      <c r="DA2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CZ2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:105" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>14</v>
       </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="F3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G3" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="H3" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="I3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J3" t="s">
+        <v>65</v>
+      </c>
+      <c r="K3" t="s">
+        <v>66</v>
+      </c>
+      <c r="L3" t="s">
+        <v>67</v>
+      </c>
+      <c r="M3" t="s">
+        <v>68</v>
+      </c>
+      <c r="N3" t="s">
+        <v>69</v>
+      </c>
+      <c r="O3" t="s">
+        <v>9</v>
+      </c>
+      <c r="P3" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>97</v>
+      </c>
+      <c r="R3" t="s">
+        <v>70</v>
+      </c>
+      <c r="S3" t="s">
+        <v>71</v>
+      </c>
+      <c r="T3" t="s">
+        <v>72</v>
+      </c>
+      <c r="U3" t="s">
+        <v>73</v>
+      </c>
+      <c r="V3" t="s">
+        <v>74</v>
+      </c>
+      <c r="W3" t="s">
+        <v>75</v>
+      </c>
+      <c r="X3" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>95</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>117</v>
+      </c>
+      <c r="AH3" t="s">
         <v>64</v>
       </c>
-      <c r="K3" t="s">
+      <c r="AI3" t="s">
         <v>65</v>
       </c>
-      <c r="L3" t="s">
+      <c r="AJ3" t="s">
         <v>66</v>
       </c>
-      <c r="M3" t="s">
+      <c r="AK3" t="s">
         <v>67</v>
       </c>
-      <c r="N3" t="s">
+      <c r="AL3" t="s">
         <v>68</v>
       </c>
-      <c r="O3" t="s">
+      <c r="AM3" t="s">
         <v>69</v>
       </c>
-      <c r="P3" t="s">
+      <c r="AN3" t="s">
         <v>9</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="AO3" t="s">
         <v>96</v>
       </c>
-      <c r="R3" t="s">
+      <c r="AP3" t="s">
         <v>97</v>
       </c>
-      <c r="S3" t="s">
+      <c r="AQ3" t="s">
         <v>70</v>
       </c>
-      <c r="T3" t="s">
+      <c r="AR3" t="s">
         <v>71</v>
       </c>
-      <c r="U3" t="s">
+      <c r="AS3" t="s">
         <v>72</v>
       </c>
-      <c r="V3" t="s">
+      <c r="AT3" t="s">
         <v>73</v>
       </c>
-      <c r="W3" t="s">
+      <c r="AU3" t="s">
         <v>74</v>
       </c>
-      <c r="X3" t="s">
+      <c r="AV3" t="s">
         <v>75</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="AW3" t="s">
         <v>76</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AX3" t="s">
         <v>77</v>
       </c>
-      <c r="AA3" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>85</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>86</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>88</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>95</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>92</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>93</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>117</v>
-      </c>
-      <c r="AI3" t="s">
+      <c r="AY3" t="s">
+        <v>116</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>120</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>122</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>124</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>126</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>128</v>
+      </c>
+      <c r="BE3" t="s">
         <v>64</v>
       </c>
-      <c r="AJ3" t="s">
+      <c r="BF3" t="s">
         <v>65</v>
       </c>
-      <c r="AK3" t="s">
+      <c r="BG3" t="s">
         <v>66</v>
       </c>
-      <c r="AL3" t="s">
+      <c r="BH3" t="s">
         <v>67</v>
       </c>
-      <c r="AM3" t="s">
+      <c r="BI3" t="s">
         <v>68</v>
       </c>
-      <c r="AN3" t="s">
+      <c r="BJ3" t="s">
         <v>69</v>
       </c>
-      <c r="AO3" t="s">
+      <c r="BK3" t="s">
         <v>9</v>
       </c>
-      <c r="AP3" t="s">
+      <c r="BL3" t="s">
         <v>96</v>
       </c>
-      <c r="AQ3" t="s">
+      <c r="BM3" t="s">
         <v>97</v>
       </c>
-      <c r="AR3" t="s">
+      <c r="BN3" t="s">
         <v>70</v>
       </c>
-      <c r="AS3" t="s">
+      <c r="BO3" t="s">
         <v>71</v>
       </c>
-      <c r="AT3" t="s">
+      <c r="BP3" t="s">
         <v>72</v>
       </c>
-      <c r="AU3" t="s">
+      <c r="BQ3" t="s">
         <v>73</v>
       </c>
-      <c r="AV3" t="s">
+      <c r="BR3" t="s">
         <v>74</v>
       </c>
-      <c r="AW3" t="s">
+      <c r="BS3" t="s">
         <v>75</v>
       </c>
-      <c r="AX3" t="s">
+      <c r="BT3" t="s">
         <v>76</v>
       </c>
-      <c r="AY3" t="s">
+      <c r="BU3" t="s">
         <v>77</v>
       </c>
-      <c r="AZ3" t="s">
-        <v>116</v>
-      </c>
-      <c r="BA3" t="s">
-        <v>120</v>
-      </c>
-      <c r="BB3" t="s">
-        <v>122</v>
-      </c>
-      <c r="BC3" t="s">
-        <v>124</v>
-      </c>
-      <c r="BD3" t="s">
-        <v>126</v>
-      </c>
-      <c r="BE3" t="s">
-        <v>128</v>
-      </c>
-      <c r="BF3" t="s">
-        <v>64</v>
-      </c>
-      <c r="BG3" t="s">
-        <v>65</v>
-      </c>
-      <c r="BH3" t="s">
-        <v>66</v>
-      </c>
-      <c r="BI3" t="s">
-        <v>67</v>
-      </c>
-      <c r="BJ3" t="s">
-        <v>68</v>
-      </c>
-      <c r="BK3" t="s">
-        <v>69</v>
-      </c>
-      <c r="BL3" t="s">
+      <c r="BV3" t="s">
+        <v>146</v>
+      </c>
+      <c r="BW3" t="s">
+        <v>147</v>
+      </c>
+      <c r="BX3" t="s">
+        <v>77</v>
+      </c>
+      <c r="BY3" t="s">
+        <v>149</v>
+      </c>
+      <c r="BZ3" t="s">
+        <v>147</v>
+      </c>
+      <c r="CA3" t="s">
+        <v>77</v>
+      </c>
+      <c r="CB3" t="s">
+        <v>157</v>
+      </c>
+      <c r="CC3" t="s">
+        <v>163</v>
+      </c>
+      <c r="CD3" t="s">
+        <v>162</v>
+      </c>
+      <c r="CE3" t="s">
+        <v>161</v>
+      </c>
+      <c r="CF3" t="s">
+        <v>165</v>
+      </c>
+      <c r="CG3" t="s">
+        <v>168</v>
+      </c>
+      <c r="CH3" t="s">
+        <v>172</v>
+      </c>
+      <c r="CI3" t="s">
+        <v>173</v>
+      </c>
+      <c r="CJ3" t="s">
+        <v>174</v>
+      </c>
+      <c r="CK3" t="s">
+        <v>178</v>
+      </c>
+      <c r="CL3" t="s">
+        <v>179</v>
+      </c>
+      <c r="CM3" t="s">
+        <v>180</v>
+      </c>
+      <c r="CN3" t="s">
+        <v>11</v>
+      </c>
+      <c r="CO3" t="s">
+        <v>10</v>
+      </c>
+      <c r="CP3" t="s">
         <v>9</v>
       </c>
-      <c r="BM3" t="s">
-        <v>96</v>
-      </c>
-      <c r="BN3" t="s">
-        <v>97</v>
-      </c>
-      <c r="BO3" t="s">
-        <v>70</v>
-      </c>
-      <c r="BP3" t="s">
-        <v>71</v>
-      </c>
-      <c r="BQ3" t="s">
-        <v>72</v>
-      </c>
-      <c r="BR3" t="s">
-        <v>73</v>
-      </c>
-      <c r="BS3" t="s">
-        <v>74</v>
-      </c>
-      <c r="BT3" t="s">
-        <v>75</v>
-      </c>
-      <c r="BU3" t="s">
-        <v>76</v>
-      </c>
-      <c r="BV3" t="s">
-        <v>77</v>
-      </c>
-      <c r="BW3" t="s">
-        <v>146</v>
-      </c>
-      <c r="BX3" t="s">
-        <v>147</v>
-      </c>
-      <c r="BY3" t="s">
-        <v>77</v>
-      </c>
-      <c r="BZ3" t="s">
-        <v>149</v>
-      </c>
-      <c r="CA3" t="s">
-        <v>147</v>
-      </c>
-      <c r="CB3" t="s">
-        <v>77</v>
-      </c>
-      <c r="CC3" t="s">
-        <v>157</v>
-      </c>
-      <c r="CD3" t="s">
-        <v>163</v>
-      </c>
-      <c r="CE3" t="s">
-        <v>162</v>
-      </c>
-      <c r="CF3" t="s">
-        <v>161</v>
-      </c>
-      <c r="CG3" t="s">
-        <v>165</v>
-      </c>
-      <c r="CH3" t="s">
-        <v>168</v>
-      </c>
-      <c r="CI3" t="s">
-        <v>172</v>
-      </c>
-      <c r="CJ3" t="s">
-        <v>173</v>
-      </c>
-      <c r="CK3" t="s">
-        <v>174</v>
-      </c>
-      <c r="CL3" t="s">
-        <v>178</v>
-      </c>
-      <c r="CM3" t="s">
-        <v>179</v>
-      </c>
-      <c r="CN3" t="s">
-        <v>180</v>
-      </c>
-      <c r="CO3" t="s">
-        <v>11</v>
-      </c>
-      <c r="CP3" t="s">
-        <v>10</v>
-      </c>
       <c r="CQ3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CR3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CS3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="CT3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="CU3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CV3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CW3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CX3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CY3" t="s">
-        <v>1</v>
+        <v>78</v>
       </c>
       <c r="CZ3" t="s">
-        <v>78</v>
-      </c>
-      <c r="DA3" t="s">
         <v>0</v>
       </c>
     </row>
